--- a/1_政策宣傳執情形/法務部/parsed/101年第3季_210181445976.xlsx
+++ b/1_政策宣傳執情形/法務部/parsed/101年第3季_210181445976.xlsx
@@ -454,14 +454,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -476,159 +476,159 @@
     <col max="8" min="8" width="9.10"/>
   </cols>
   <sheetData>
-    <row spans="1:8" r="1">
-      <c s="1" t="s" r="A1">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c s="1" t="s" r="B1">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c s="1" t="s" r="C1">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c s="1" t="s" r="D1">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c s="1" t="s" r="E1">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c s="1" t="s" r="F1">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c s="1" t="s" r="G1">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c s="1" t="s" r="H1">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row spans="1:8" r="2">
-      <c t="s" r="A2">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="B2">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c t="n" r="C2">
+      <c r="C2" t="n">
         <v>101</v>
       </c>
-      <c t="s" r="D2">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c t="n" r="E2">
+      <c r="E2" t="n">
         <v>60000</v>
       </c>
-      <c t="s" r="F2">
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="G2">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="H2">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row spans="1:8" r="3">
-      <c t="s" r="A3">
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="B3">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c t="n" r="C3">
+      <c r="C3" t="n">
         <v>101</v>
       </c>
-      <c t="s" r="D3">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="E3">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c t="s" r="F3">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="G3">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="H3">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row spans="1:8" r="4">
-      <c t="s" r="A4">
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c t="n" r="C4">
+      <c r="C4" t="n">
         <v>101</v>
       </c>
-      <c t="s" r="D4">
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c t="n" r="E4">
+      <c r="E4" t="n">
         <v>45000</v>
       </c>
-      <c t="s" r="F4">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="G4">
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="H4">
+      <c r="H4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row spans="1:8" r="5">
-      <c t="s" r="A5">
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="B5">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c t="n" r="C5">
+      <c r="C5" t="n">
         <v>101</v>
       </c>
-      <c t="s" r="D5">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="E5">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="F5">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="G5">
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="H5">
+      <c r="H5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row spans="1:8" r="6">
-      <c t="s" r="A6">
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="B6">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c t="n" r="C6">
+      <c r="C6" t="n">
         <v>101</v>
       </c>
-      <c t="s" r="D6">
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="E6">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c t="s" r="F6">
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="G6">
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="H6">
+      <c r="H6" t="s">
         <v>17</v>
       </c>
     </row>
